--- a/mydemo/output/豆瓣电影数据.xlsx
+++ b/mydemo/output/豆瓣电影数据.xlsx
@@ -713,109 +713,109 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>无间道</t>
+          <t>龙猫</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>香港电影史上永不过时的杰作。</t>
+          <t>人人心中都有个龙猫，童年就永远不会消失。</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>疯狂动物城</t>
+          <t>末代皇帝</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>迪士尼给我们营造的乌托邦就是这样，永远善良勇敢，永远出乎意料。</t>
+          <t>“不要跟我比惨，我比你更惨”再适合这部电影不过了。</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>控方证人</t>
+          <t>寻梦环游记</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>比利·怀德满分作品。</t>
+          <t>死亡不是真的逝去，遗忘才是永恒的消亡。</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>大话西游之大圣娶亲</t>
+          <t>活着</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>一生所爱。</t>
+          <t>张艺谋最好的电影。</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>熔炉</t>
+          <t>蝙蝠侠：黑暗骑士</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>我们一路奋战不是为了改变世界，而是为了不让世界改变我们。</t>
+          <t>无尽的黑暗。</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>教父</t>
+          <t>哈利·波特与魔法石</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>千万不要记恨你的对手，这样会让你失去理智。</t>
+          <t>童话世界的开端。</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>触不可及</t>
+          <t>无间道</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -825,14 +825,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>满满温情的高雅喜剧。</t>
+          <t>香港电影史上永不过时的杰作。</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>当幸福来敲门</t>
+          <t>疯狂动物城</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -842,31 +842,31 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">平民励志片。 </t>
+          <t>迪士尼给我们营造的乌托邦就是这样，永远善良勇敢，永远出乎意料。</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>怦然心动</t>
+          <t>控方证人</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>真正的幸福是来自内心深处。</t>
+          <t>比利·怀德满分作品。</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>龙猫</t>
+          <t>大话西游之大圣娶亲</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -876,48 +876,48 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>人人心中都有个龙猫，童年就永远不会消失。</t>
+          <t>一生所爱。</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>末代皇帝</t>
+          <t>熔炉</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>“不要跟我比惨，我比你更惨”再适合这部电影不过了。</t>
+          <t>我们一路奋战不是为了改变世界，而是为了不让世界改变我们。</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>寻梦环游记</t>
+          <t>教父</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>死亡不是真的逝去，遗忘才是永恒的消亡。</t>
+          <t>千万不要记恨你的对手，这样会让你失去理智。</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>活着</t>
+          <t>触不可及</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -927,14 +927,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>张艺谋最好的电影。</t>
+          <t>满满温情的高雅喜剧。</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>蝙蝠侠：黑暗骑士</t>
+          <t>当幸福来敲门</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -944,31 +944,31 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>无尽的黑暗。</t>
+          <t xml:space="preserve">平民励志片。 </t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>哈利·波特与魔法石</t>
+          <t>指环王3：王者无敌</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>童话世界的开端。</t>
+          <t>史诗的终章。</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>指环王3：王者无敌</t>
+          <t>乱世佳人</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -978,143 +978,143 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>史诗的终章。</t>
+          <t>Tomorrow is another day.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>乱世佳人</t>
+          <t>我不是药神</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Tomorrow is another day.</t>
+          <t>对我们国家而言，这样的电影多一部是一部。</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>我不是药神</t>
+          <t>飞屋环游记</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>对我们国家而言，这样的电影多一部是一部。</t>
+          <t xml:space="preserve">最后那些最无聊的事情，才是最值得怀念的。 </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>飞屋环游记</t>
+          <t>素媛</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">最后那些最无聊的事情，才是最值得怀念的。 </t>
+          <t>受过伤害的人总是笑得最开心，因为他们不愿意让身边的人承受一样的痛苦。</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>素媛</t>
+          <t>哈尔的移动城堡</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>受过伤害的人总是笑得最开心，因为他们不愿意让身边的人承受一样的痛苦。</t>
+          <t>带着心爱的人在天空飞翔。</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>哈尔的移动城堡</t>
+          <t>十二怒汉</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>带着心爱的人在天空飞翔。</t>
+          <t xml:space="preserve">1957年的理想主义。 </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>十二怒汉</t>
+          <t>何以为家</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">1957年的理想主义。 </t>
+          <t>凝视卑弱生命，用电影改变命运。</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>何以为家</t>
+          <t>摔跤吧！爸爸</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>凝视卑弱生命，用电影改变命运。</t>
+          <t>你不是在为你一个人战斗，你要让千千万万的女性看到女生并不是只能相夫教子。</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>摔跤吧！爸爸</t>
+          <t>怦然心动</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>你不是在为你一个人战斗，你要让千千万万的女性看到女生并不是只能相夫教子。</t>
+          <t>真正的幸福是来自内心深处。</t>
         </is>
       </c>
     </row>
@@ -1155,34 +1155,34 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>猫鼠游戏</t>
+          <t>天空之城</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">骗子大师和执著警探的你追我跑故事。 </t>
+          <t xml:space="preserve">对天空的追逐，永不停止。 </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>天空之城</t>
+          <t>猫鼠游戏</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">对天空的追逐，永不停止。 </t>
+          <t xml:space="preserve">骗子大师和执著警探的你追我跑故事。 </t>
         </is>
       </c>
     </row>
@@ -2277,34 +2277,34 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>第六感</t>
+          <t>蝙蝠侠：黑暗骑士崛起</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>深入内心的恐怖，出人意料的结局。</t>
+          <t>诺兰就是保证。</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>蝙蝠侠：黑暗骑士崛起</t>
+          <t>第六感</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>诺兰就是保证。</t>
+          <t>深入内心的恐怖，出人意料的结局。</t>
         </is>
       </c>
     </row>
@@ -2447,34 +2447,34 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>小森林 夏秋篇</t>
+          <t>借东西的小人阿莉埃蒂</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>那些静得只能听见呼吸的日子里，你明白孤独即生活。</t>
+          <t>曾经的那段美好会沉淀为一辈子的记忆。</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>借东西的小人阿莉埃蒂</t>
+          <t>小森林 夏秋篇</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>曾经的那段美好会沉淀为一辈子的记忆。</t>
+          <t>那些静得只能听见呼吸的日子里，你明白孤独即生活。</t>
         </is>
       </c>
     </row>
@@ -3010,29 +3010,29 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>我是山姆</t>
+          <t>九品芝麻官</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>爱并不需要智商 。</t>
+          <t>8.7</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>九品芝麻官</t>
+          <t>我是山姆</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>爱并不需要智商 。</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>血战钢锯岭</t>
+          <t>色，戒</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3066,14 +3066,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>优秀的战争片不会美化战场，不会粉饰死亡，不会矮化敌人，不会无视常识，最重要的，不会宣扬战争。</t>
+          <t>假戏真情，爱欲深海</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>色，戒</t>
+          <t>血战钢锯岭</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>假戏真情，爱欲深海</t>
+          <t>优秀的战争片不会美化战场，不会粉饰死亡，不会矮化敌人，不会无视常识，最重要的，不会宣扬战争。</t>
         </is>
       </c>
     </row>
@@ -3532,29 +3532,29 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>小偷家族</t>
+          <t>小丑</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>8.7</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>我们组成了家。</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>小丑</t>
+          <t>小偷家族</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>8.7</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>我们组成了家。</t>
         </is>
       </c>
     </row>
@@ -3636,29 +3636,29 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>贫民窟的百万富翁</t>
+          <t>心灵奇旅</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>8.6</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>上帝之城+猜火车+阿甘正传+开心辞典=山寨富翁</t>
+          <t>8.7</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>心灵奇旅</t>
+          <t>贫民窟的百万富翁</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>上帝之城+猜火车+阿甘正传+开心辞典=山寨富翁</t>
         </is>
       </c>
     </row>
@@ -3682,34 +3682,34 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>东邪西毒</t>
+          <t>恐怖游轮</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>电影诗。</t>
+          <t>不要企图在重复中寻找已经失去的爱。</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>恐怖游轮</t>
+          <t>东邪西毒</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>不要企图在重复中寻找已经失去的爱。</t>
+          <t>电影诗。</t>
         </is>
       </c>
     </row>
@@ -4429,34 +4429,34 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>阿飞正传</t>
+          <t>弱点</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>王家卫是一种风格，张国荣是一个代表。</t>
+          <t>拍掉身上的悲伤，从今天开始重新踏上追梦之旅。</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>弱点</t>
+          <t>阿飞正传</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>拍掉身上的悲伤，从今天开始重新踏上追梦之旅。</t>
+          <t>王家卫是一种风格，张国荣是一个代表。</t>
         </is>
       </c>
     </row>
@@ -4572,34 +4572,29 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>穿越时空的少女</t>
+          <t>蜘蛛侠：平行宇宙</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>8.6</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t xml:space="preserve">爱上未来的你。 </t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>海洋</t>
+          <t>穿越时空的少女</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>大海啊，不全是水。</t>
+          <t xml:space="preserve">爱上未来的你。 </t>
         </is>
       </c>
     </row>
